--- a/latin-parallel/w1/Week 1 Antiphons.xlsx
+++ b/latin-parallel/w1/Week 1 Antiphons.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cojor\Google Drive\Sacred Music - Jorgensen\santissimo-nome\latin-parallel\w1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cojor\Documents\santissimo-nome\santissimo-nome\latin-parallel\w1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D0EFFDC-D213-454C-8C8B-4B4FC94E6555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B13F2C-2043-4731-8923-0FE51D23265F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22485" yWindow="3390" windowWidth="11940" windowHeight="13260" xr2:uid="{22E9CB85-AA19-4EAD-83EC-22507C8006FC}"/>
+    <workbookView xWindow="51525" yWindow="4050" windowWidth="14310" windowHeight="12840" xr2:uid="{22E9CB85-AA19-4EAD-83EC-22507C8006FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="SSXIV Outline" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="331">
   <si>
     <t>Sunday Week 1</t>
   </si>
@@ -255,13 +257,784 @@
   </si>
   <si>
     <t>note: et judica causam meam is the OP text, not non pravale</t>
+  </si>
+  <si>
+    <t>243ra</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>file name</t>
+  </si>
+  <si>
+    <t>241ra</t>
+  </si>
+  <si>
+    <t>313rb</t>
+  </si>
+  <si>
+    <t>240rb</t>
+  </si>
+  <si>
+    <t>241va</t>
+  </si>
+  <si>
+    <t>254vb</t>
+  </si>
+  <si>
+    <t>1 | 61</t>
+  </si>
+  <si>
+    <t>241rb</t>
+  </si>
+  <si>
+    <t>248va</t>
+  </si>
+  <si>
+    <t>1 | 304</t>
+  </si>
+  <si>
+    <t>Gillet</t>
+  </si>
+  <si>
+    <t>Jandel</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>306vb</t>
+  </si>
+  <si>
+    <t>1 | *124, 2 | *132</t>
+  </si>
+  <si>
+    <t>1 | 469</t>
+  </si>
+  <si>
+    <t>2 | 149</t>
+  </si>
+  <si>
+    <t>1 | 395, 1 | *49, 2 | *49</t>
+  </si>
+  <si>
+    <t>256vb, 312vb</t>
+  </si>
+  <si>
+    <t>1 | 711</t>
+  </si>
+  <si>
+    <t>854</t>
+  </si>
+  <si>
+    <t>1 | 119.2, 2 | 94</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>Chants I Found in SSXIV for Index Addition</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>231rb</t>
+  </si>
+  <si>
+    <t>In illa die</t>
+  </si>
+  <si>
+    <t>Dominican I Adventus - Gillet</t>
+  </si>
+  <si>
+    <t>231ra</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Hora est iam ?</t>
+  </si>
+  <si>
+    <t>Jucundare, filia Sion</t>
+  </si>
+  <si>
+    <t>Ecce Dominus veniet</t>
+  </si>
+  <si>
+    <t>Lauds Feria I ?</t>
+  </si>
+  <si>
+    <t>231va</t>
+  </si>
+  <si>
+    <t>Feria II  matins in diebus ?</t>
+  </si>
+  <si>
+    <t>Regem venturum</t>
+  </si>
+  <si>
+    <t>Feria III</t>
+  </si>
+  <si>
+    <t>Feria IV</t>
+  </si>
+  <si>
+    <t>De Sion</t>
+  </si>
+  <si>
+    <t>Leva Jerusalem</t>
+  </si>
+  <si>
+    <t>231vb</t>
+  </si>
+  <si>
+    <t>Feria V</t>
+  </si>
+  <si>
+    <t>Benedicta tu in mulieribus</t>
+  </si>
+  <si>
+    <t>Feria VI</t>
+  </si>
+  <si>
+    <t>Ecce veniet Deus</t>
+  </si>
+  <si>
+    <t>Sabato</t>
+  </si>
+  <si>
+    <t>Sion noli timere</t>
+  </si>
+  <si>
+    <t>Pos. Sunday 2 Advent</t>
+  </si>
+  <si>
+    <t>Pos. Sunday 1 Advent</t>
+  </si>
+  <si>
+    <t>Veni domine visitare</t>
+  </si>
+  <si>
+    <t>Dominican II Adventus - Jandel</t>
+  </si>
+  <si>
+    <t>Dominica II ad Mag.</t>
+  </si>
+  <si>
+    <t>232rb</t>
+  </si>
+  <si>
+    <t>Ecce in nubilus coeli</t>
+  </si>
+  <si>
+    <t>Dominica II Advent - Lauds et ad Horas</t>
+  </si>
+  <si>
+    <t>232vb</t>
+  </si>
+  <si>
+    <t>Dominica III</t>
+  </si>
+  <si>
+    <t>Ante me non est</t>
+  </si>
+  <si>
+    <t>Dominica IV Advent</t>
+  </si>
+  <si>
+    <t>Ecce jam</t>
+  </si>
+  <si>
+    <t>234ra</t>
+  </si>
+  <si>
+    <t>O Antiphons</t>
+  </si>
+  <si>
+    <t>235va</t>
+  </si>
+  <si>
+    <t>Vigil Christmas</t>
+  </si>
+  <si>
+    <t>Hodie scietis</t>
+  </si>
+  <si>
+    <t>235vb</t>
+  </si>
+  <si>
+    <t>I Vespers Christmas</t>
+  </si>
+  <si>
+    <t>Rex pacificus</t>
+  </si>
+  <si>
+    <t>236ra</t>
+  </si>
+  <si>
+    <t>Christmas Octave Ben</t>
+  </si>
+  <si>
+    <t>Nesciens mater</t>
+  </si>
+  <si>
+    <t>237va</t>
+  </si>
+  <si>
+    <t>Circumcision</t>
+  </si>
+  <si>
+    <t>Qui de terra</t>
+  </si>
+  <si>
+    <t>Epiphany Vigil +</t>
+  </si>
+  <si>
+    <t>Reverente ?</t>
+  </si>
+  <si>
+    <t>238va</t>
+  </si>
+  <si>
+    <t>Dominica prima post Oct Epiphany</t>
+  </si>
+  <si>
+    <t>Benedictus dominus deus meus</t>
+  </si>
+  <si>
+    <t>240ra</t>
+  </si>
+  <si>
+    <t>Dominica Quarta</t>
+  </si>
+  <si>
+    <t>Dominica Tertia</t>
+  </si>
+  <si>
+    <t>243va</t>
+  </si>
+  <si>
+    <t>tons of "regular" antiphons, ferials?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica in Quinquagesima </t>
+  </si>
+  <si>
+    <t>Locutus est Dominus</t>
+  </si>
+  <si>
+    <t>245rb</t>
+  </si>
+  <si>
+    <t>Tuesday Week 1</t>
+  </si>
+  <si>
+    <t>Regem magnum Dominum, venite, adoremus</t>
+  </si>
+  <si>
+    <t>Ut quid, Domine</t>
+  </si>
+  <si>
+    <t>Tu, Domine, servabis nos</t>
+  </si>
+  <si>
+    <t>Innocens manibus</t>
+  </si>
+  <si>
+    <t>Exaltate regem saeculorum</t>
+  </si>
+  <si>
+    <t>Rectos decet</t>
+  </si>
+  <si>
+    <t>Beati qui ambulant</t>
+  </si>
+  <si>
+    <t>Cantabo Domino</t>
+  </si>
+  <si>
+    <t>Dominus de caelo</t>
+  </si>
+  <si>
+    <t>Exaudiat te Dominus</t>
+  </si>
+  <si>
+    <t>Cantabimus et psallemus</t>
+  </si>
+  <si>
+    <t>Redemisti nos</t>
+  </si>
+  <si>
+    <t>Exsultet spiritus</t>
+  </si>
+  <si>
+    <t>Wednesday Week 1</t>
+  </si>
+  <si>
+    <t>Dominum qui fecit nos, venite, adoremus</t>
+  </si>
+  <si>
+    <t>Diligam te, Domine</t>
+  </si>
+  <si>
+    <t>Domine in caelo</t>
+  </si>
+  <si>
+    <t>Domine, magnus es tu</t>
+  </si>
+  <si>
+    <t>Iubilate Deo in voce</t>
+  </si>
+  <si>
+    <t>Salutem ex inimicis</t>
+  </si>
+  <si>
+    <t>In toto corde</t>
+  </si>
+  <si>
+    <t>Inclina, Domine</t>
+  </si>
+  <si>
+    <t>In velamento alarum tuarum protégé nos, Domine, et in laude tua gloriemur</t>
+  </si>
+  <si>
+    <t>Illuminatio mea</t>
+  </si>
+  <si>
+    <t>Credo videre</t>
+  </si>
+  <si>
+    <t>Christo datus est</t>
+  </si>
+  <si>
+    <t>Fecit mihi magna</t>
+  </si>
+  <si>
+    <t>Thursday Week 1</t>
+  </si>
+  <si>
+    <t>Adoremus Dominum qui fecit nos</t>
+  </si>
+  <si>
+    <t>Vivit Dominus</t>
+  </si>
+  <si>
+    <t>Quoniam in te confidit</t>
+  </si>
+  <si>
+    <t>Populus meus, ait</t>
+  </si>
+  <si>
+    <t>Magnus Dominus</t>
+  </si>
+  <si>
+    <t>In sanctitate serviamus</t>
+  </si>
+  <si>
+    <t>Vivam et custodiam</t>
+  </si>
+  <si>
+    <t>Qui te exspectant, Domine</t>
+  </si>
+  <si>
+    <t>Oculi mei semper</t>
+  </si>
+  <si>
+    <t>Domine abstraxisti</t>
+  </si>
+  <si>
+    <t>Laetamini in Domino</t>
+  </si>
+  <si>
+    <t>Dedit ei Dominus</t>
+  </si>
+  <si>
+    <t>Friday Week I</t>
+  </si>
+  <si>
+    <t>Dominum Deum nostrum, venite, adoremus</t>
+  </si>
+  <si>
+    <t>Iudica causam meam</t>
+  </si>
+  <si>
+    <t>Miserere mei, Deus</t>
+  </si>
+  <si>
+    <t>In Domino iustificabitur</t>
+  </si>
+  <si>
+    <t>Iubilate Deo omnis terra</t>
+  </si>
+  <si>
+    <t>Visitavit et fecit</t>
+  </si>
+  <si>
+    <t>Gressus meos</t>
+  </si>
+  <si>
+    <t>Misericordia tua Domine</t>
+  </si>
+  <si>
+    <t>Dominus Deus auxiliator</t>
+  </si>
+  <si>
+    <t>Sana, Domine</t>
+  </si>
+  <si>
+    <t>Adiutor in tribulationibus</t>
+  </si>
+  <si>
+    <t>Omnes gentes</t>
+  </si>
+  <si>
+    <t>Suscepit Deus</t>
+  </si>
+  <si>
+    <t>Saturday Week I</t>
+  </si>
+  <si>
+    <t>Populis Domini et oves pascuae eius, venite, adoremus eum.</t>
+  </si>
+  <si>
+    <t>a (non-OT)</t>
+  </si>
+  <si>
+    <t>Laetetur cor quaerentium Dominum</t>
+  </si>
+  <si>
+    <t>a1 OT</t>
+  </si>
+  <si>
+    <t>Domine, non est exaltatum cor</t>
+  </si>
+  <si>
+    <t>a2 OT</t>
+  </si>
+  <si>
+    <t>Et omnis mansuetudinis eius</t>
+  </si>
+  <si>
+    <t>Da mihi intellectum</t>
+  </si>
+  <si>
+    <t>Laudate Dominum omnes</t>
+  </si>
+  <si>
+    <t>Illuminare, Domine</t>
+  </si>
+  <si>
+    <t>Deduc me, Domine</t>
+  </si>
+  <si>
+    <t>Immitet angelus</t>
+  </si>
+  <si>
+    <t>Clamaverunt iusti</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>an--factus_est_adjutor--dominican</t>
+  </si>
+  <si>
+    <t>SS, find</t>
+  </si>
+  <si>
+    <t>an--beati_qui_lavant--dominican</t>
+  </si>
+  <si>
+    <t>an--magnificat--dominican</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>an--innocens_manibus--dominican</t>
+  </si>
+  <si>
+    <t>an--exaltate…_saeculorum--dominican</t>
+  </si>
+  <si>
+    <t>1:60</t>
+  </si>
+  <si>
+    <t>1:45</t>
+  </si>
+  <si>
+    <t>an--redemisti_nos_domine_(ant)--dominican</t>
+  </si>
+  <si>
+    <t>an--domine_in_caelo--dominican</t>
+  </si>
+  <si>
+    <t>an--domine_magnus--dominican</t>
+  </si>
+  <si>
+    <t>1:65</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>an--illuminato_mea--dominican</t>
+  </si>
+  <si>
+    <t>Cormier, Proc 252</t>
+  </si>
+  <si>
+    <t>an--credo_videre--dominican</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>an--fecit_mihi_magna--dominican</t>
+  </si>
+  <si>
+    <t>close text approx</t>
+  </si>
+  <si>
+    <t>1:64</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>an--populus_meus_dominican</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>an--magnus_dominus--dominican</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>an--in_sanctitate_serviamus--dominican</t>
+  </si>
+  <si>
+    <t>1:398</t>
+  </si>
+  <si>
+    <t>2:658</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>an--dedit_ei…_potestatem--dominican</t>
+  </si>
+  <si>
+    <t>Respexit Dominus</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>an--respexit_dominus_(i)--dominican</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>an--judica_causam--dominican</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>an--miserere_mei…secundum--dominican</t>
+  </si>
+  <si>
+    <t>texts probably don't match</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>an--in_domino--dominican</t>
+  </si>
+  <si>
+    <t>1:69</t>
+  </si>
+  <si>
+    <t>1:62</t>
+  </si>
+  <si>
+    <t>1:235</t>
+  </si>
+  <si>
+    <t>1:126</t>
+  </si>
+  <si>
+    <t>1:319</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>an--domine_non_est--dominican</t>
+  </si>
+  <si>
+    <t>1:122</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>1:118</t>
+  </si>
+  <si>
+    <t>Start of Sunday (ferial cycle)</t>
+  </si>
+  <si>
+    <t>Feria secunda</t>
+  </si>
+  <si>
+    <t>Feria tertia</t>
+  </si>
+  <si>
+    <t>241vb</t>
+  </si>
+  <si>
+    <t>Feria quinta</t>
+  </si>
+  <si>
+    <t>Feria quarta</t>
+  </si>
+  <si>
+    <t>242rb</t>
+  </si>
+  <si>
+    <t>Feria sexta</t>
+  </si>
+  <si>
+    <t>242vb</t>
+  </si>
+  <si>
+    <t>Dominum Deum nostrum</t>
+  </si>
+  <si>
+    <t>Dominum qui fecit nos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adoremus Dominum </t>
+  </si>
+  <si>
+    <t>In manu tua Domine</t>
+  </si>
+  <si>
+    <t>Jubilemus Deo</t>
+  </si>
+  <si>
+    <t>Venite exsultemus Domino</t>
+  </si>
+  <si>
+    <t>Venite exultemus Domino</t>
+  </si>
+  <si>
+    <t>different than Sunday</t>
+  </si>
+  <si>
+    <t>an--intellige_clamorem--dominican</t>
+  </si>
+  <si>
+    <t>an--laudamus--dominican</t>
+  </si>
+  <si>
+    <t>an--adorate_dominum--dominican</t>
+  </si>
+  <si>
+    <t>an--benedictus--dominican</t>
+  </si>
+  <si>
+    <t>an--tu_domine--dominican</t>
+  </si>
+  <si>
+    <t>an--rectos_decet--dominican</t>
+  </si>
+  <si>
+    <t>an--exaudiat_te--dominican</t>
+  </si>
+  <si>
+    <t>substitution antiphon</t>
+  </si>
+  <si>
+    <t>an--tu_domine_(ii)--dominican</t>
+  </si>
+  <si>
+    <t>Feria III, Jubilemus Deo</t>
+  </si>
+  <si>
+    <t>Nocturn Psalm match; Dom Noct. 1; AJ 34</t>
+  </si>
+  <si>
+    <t>Domine, Deus meus, in te speravi.</t>
+  </si>
+  <si>
+    <t>an--domine_deus--dominican</t>
+  </si>
+  <si>
+    <t>Ps 15; Dom Mat, Noct 1. psalm inclusion; Tu, Domine, servabis nos.</t>
+  </si>
+  <si>
+    <t>Nocturn psalm match; AJ 46; Domine, in virtute tua</t>
+  </si>
+  <si>
+    <t>an--domine_in_virtute--dominican</t>
+  </si>
+  <si>
+    <t>From Feria III Mag, AJ 120; Exultavit spiritus meus in Deo</t>
+  </si>
+  <si>
+    <t>an--exultavit_spiritus--dominican</t>
+  </si>
+  <si>
+    <t>Ps 10; Nocturn psalm, AJ 34; repeat of antiphon for Tuesday OL a2</t>
+  </si>
+  <si>
+    <t>Venite I</t>
+  </si>
+  <si>
+    <t>370rb</t>
+  </si>
+  <si>
+    <t>Venite II</t>
+  </si>
+  <si>
+    <t>370va</t>
+  </si>
+  <si>
+    <t>Venite III</t>
+  </si>
+  <si>
+    <t>370vb</t>
+  </si>
+  <si>
+    <t>Venite IVa</t>
+  </si>
+  <si>
+    <t>371ra</t>
+  </si>
+  <si>
+    <t>Venite IVb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +1048,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -297,9 +1077,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,425 +1399,1959 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF978195-7096-4E4D-8579-2A7338389D4D}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G18" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>52</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="D23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>57</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>8</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="F26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="D27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="D28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>62</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="D30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" t="s">
+        <v>315</v>
+      </c>
+      <c r="H30" t="s">
+        <v>321</v>
+      </c>
+      <c r="I30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="D31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" t="s">
+        <v>311</v>
+      </c>
+      <c r="H31" t="s">
+        <v>316</v>
+      </c>
+      <c r="I31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="C32" t="s">
-        <v>67</v>
+      <c r="C35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s">
+        <v>312</v>
+      </c>
+      <c r="I35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H36" t="s">
+        <v>313</v>
+      </c>
+      <c r="I36" t="s">
+        <v>314</v>
+      </c>
+      <c r="J36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="2">
+        <v>192</v>
+      </c>
+      <c r="G37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="2">
+        <v>146</v>
+      </c>
+      <c r="G38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="2">
+        <v>173</v>
+      </c>
+      <c r="G39" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G45" t="s">
+        <v>318</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1009</v>
+      </c>
+      <c r="G46" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G47" t="s">
+        <v>320</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I47" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" s="2">
+        <v>217</v>
+      </c>
+      <c r="G51" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52" s="2">
+        <v>196</v>
+      </c>
+      <c r="G52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="2">
+        <v>136</v>
+      </c>
+      <c r="G53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>197</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>198</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>203</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>204</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>205</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" t="s">
+        <v>266</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>208</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>209</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>210</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>211</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" t="s">
+        <v>212</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>216</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>217</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>218</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" t="s">
+        <v>219</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>221</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C92" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>224</v>
+      </c>
+      <c r="C93" t="s">
+        <v>225</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" t="s">
+        <v>227</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>228</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>229</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" t="s">
+        <v>230</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E24442-970F-4C42-ADC6-567E7465FAFC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6909A6C0-D6DA-4693-8B4F-987CEEA0605D}">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>286</v>
+      </c>
+      <c r="C32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33" t="s">
+        <v>300</v>
+      </c>
+      <c r="D33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>288</v>
+      </c>
+      <c r="C34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>289</v>
+      </c>
+      <c r="B35" t="s">
+        <v>291</v>
+      </c>
+      <c r="C35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>292</v>
+      </c>
+      <c r="B36" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>294</v>
+      </c>
+      <c r="B37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>323</v>
+      </c>
+      <c r="B40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>325</v>
+      </c>
+      <c r="B41" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>329</v>
+      </c>
+      <c r="B43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>329</v>
+      </c>
+      <c r="B44" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>